--- a/server/static/templates/report without page.xlsx
+++ b/server/static/templates/report without page.xlsx
@@ -207,13 +207,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,20 +536,20 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -578,10 +578,10 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">

--- a/server/static/templates/report without page.xlsx
+++ b/server/static/templates/report without page.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Сайт</t>
   </si>
@@ -63,24 +63,13 @@
   </si>
   <si>
     <t>Время загрузки самой большой части контента, мс</t>
-  </si>
-  <si>
-    <t>Информация о проверках и сбоях в остальных листах</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,12 +114,6 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -197,28 +180,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
+  <cellStyles count="3">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Контрольная ячейка" xfId="2" builtinId="23"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -536,20 +516,20 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -578,10 +558,10 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -614,9 +594,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
